--- a/projection/csv/bazmandeh.xlsx
+++ b/projection/csv/bazmandeh.xlsx
@@ -22,10 +22,10 @@
     <t>average_salary</t>
   </si>
   <si>
-    <t>insurance_record</t>
+    <t>number</t>
   </si>
   <si>
-    <t>number</t>
+    <t>insurance_record</t>
   </si>
 </sst>
 </file>
@@ -92,22 +92,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -412,16 +412,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -439,17 +439,1277 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1703</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1703</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1703</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1703</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1703</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7110</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7110</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7110</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7110</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>26116033</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7110</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>26162249</v>
+      </c>
+      <c r="C12" s="4">
+        <v>12908</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>26162249</v>
+      </c>
+      <c r="C13" s="4">
+        <v>12908</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>26162249</v>
+      </c>
+      <c r="C14" s="4">
+        <v>12908</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>26162249</v>
+      </c>
+      <c r="C15" s="4">
+        <v>12908</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>26162249</v>
+      </c>
+      <c r="C16" s="4">
+        <v>12908</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>26943105</v>
+      </c>
+      <c r="C17" s="4">
+        <v>17198</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>26943105</v>
+      </c>
+      <c r="C18" s="4">
+        <v>17198</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>26943105</v>
+      </c>
+      <c r="C19" s="4">
+        <v>17198</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>26943105</v>
+      </c>
+      <c r="C20" s="4">
+        <v>17198</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>26943105</v>
+      </c>
+      <c r="C21" s="4">
+        <v>17198</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>28581962</v>
+      </c>
+      <c r="C22" s="4">
+        <v>10068</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>28581962</v>
+      </c>
+      <c r="C23" s="4">
+        <v>10068</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>28581962</v>
+      </c>
+      <c r="C24" s="4">
+        <v>10068</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>28581962</v>
+      </c>
+      <c r="C25" s="4">
+        <v>10068</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>28581962</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10068</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>28382415</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7280</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>28382415</v>
+      </c>
+      <c r="C28" s="4">
+        <v>7280</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28382415</v>
+      </c>
+      <c r="C29" s="4">
+        <v>7280</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28382415</v>
+      </c>
+      <c r="C30" s="4">
+        <v>7280</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28382415</v>
+      </c>
+      <c r="C31" s="4">
+        <v>7280</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="4">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>27588708</v>
+      </c>
+      <c r="C32" s="4">
+        <v>11225</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>27588708</v>
+      </c>
+      <c r="C33" s="4">
+        <v>11225</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>27588708</v>
+      </c>
+      <c r="C34" s="4">
+        <v>11225</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>27588708</v>
+      </c>
+      <c r="C35" s="4">
+        <v>11225</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="4">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>27588708</v>
+      </c>
+      <c r="C36" s="4">
+        <v>11225</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>27553604</v>
+      </c>
+      <c r="C37" s="6">
+        <v>16938</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>27553604</v>
+      </c>
+      <c r="C38" s="6">
+        <v>16938</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B2" s="4">
-        <v>27600000</v>
-      </c>
-      <c r="C2" s="5">
-        <v>18.5</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1047000</v>
+      <c r="B39" s="1">
+        <v>27553604</v>
+      </c>
+      <c r="C39" s="6">
+        <v>16938</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>27553604</v>
+      </c>
+      <c r="C40" s="6">
+        <v>16938</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>27553604</v>
+      </c>
+      <c r="C41" s="6">
+        <v>16938</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>27712484</v>
+      </c>
+      <c r="C42" s="6">
+        <v>19581</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>27712484</v>
+      </c>
+      <c r="C43" s="6">
+        <v>19581</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>27712484</v>
+      </c>
+      <c r="C44" s="6">
+        <v>19581</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>27712484</v>
+      </c>
+      <c r="C45" s="6">
+        <v>19581</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>27712484</v>
+      </c>
+      <c r="C46" s="6">
+        <v>19581</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>28079068</v>
+      </c>
+      <c r="C47" s="6">
+        <v>20663</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>28079068</v>
+      </c>
+      <c r="C48" s="6">
+        <v>20663</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>28079068</v>
+      </c>
+      <c r="C49" s="6">
+        <v>20663</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>28079068</v>
+      </c>
+      <c r="C50" s="6">
+        <v>20663</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>28079068</v>
+      </c>
+      <c r="C51" s="6">
+        <v>20663</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>28539177</v>
+      </c>
+      <c r="C52" s="6">
+        <v>24618</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>28539177</v>
+      </c>
+      <c r="C53" s="6">
+        <v>24618</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>28539177</v>
+      </c>
+      <c r="C54" s="6">
+        <v>24618</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>28539177</v>
+      </c>
+      <c r="C55" s="6">
+        <v>24618</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>28539177</v>
+      </c>
+      <c r="C56" s="6">
+        <v>24618</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>28502819</v>
+      </c>
+      <c r="C57" s="6">
+        <v>27059</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>28502819</v>
+      </c>
+      <c r="C58" s="6">
+        <v>27059</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>28502819</v>
+      </c>
+      <c r="C59" s="6">
+        <v>27059</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>28502819</v>
+      </c>
+      <c r="C60" s="6">
+        <v>27059</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>28502819</v>
+      </c>
+      <c r="C61" s="6">
+        <v>27059</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>28049759</v>
+      </c>
+      <c r="C62" s="6">
+        <v>31079</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>28049759</v>
+      </c>
+      <c r="C63" s="6">
+        <v>31079</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>28049759</v>
+      </c>
+      <c r="C64" s="6">
+        <v>31079</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>28049759</v>
+      </c>
+      <c r="C65" s="6">
+        <v>31079</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>28049759</v>
+      </c>
+      <c r="C66" s="6">
+        <v>31079</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>27643683</v>
+      </c>
+      <c r="C67" s="6">
+        <v>30892</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>27643683</v>
+      </c>
+      <c r="C68" s="6">
+        <v>30892</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>27643683</v>
+      </c>
+      <c r="C69" s="6">
+        <v>30892</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>27643683</v>
+      </c>
+      <c r="C70" s="6">
+        <v>30892</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>27643683</v>
+      </c>
+      <c r="C71" s="6">
+        <v>30892</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>27323684</v>
+      </c>
+      <c r="C72" s="6">
+        <v>26724</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>27323684</v>
+      </c>
+      <c r="C73" s="6">
+        <v>26724</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>27323684</v>
+      </c>
+      <c r="C74" s="6">
+        <v>26724</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>27323684</v>
+      </c>
+      <c r="C75" s="6">
+        <v>26724</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>27323684</v>
+      </c>
+      <c r="C76" s="6">
+        <v>26724</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>27417468</v>
+      </c>
+      <c r="C77" s="6">
+        <v>19304</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>27417468</v>
+      </c>
+      <c r="C78" s="6">
+        <v>19304</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>27417468</v>
+      </c>
+      <c r="C79" s="6">
+        <v>19304</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>27417468</v>
+      </c>
+      <c r="C80" s="6">
+        <v>19304</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>27417468</v>
+      </c>
+      <c r="C81" s="6">
+        <v>19304</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>27799198</v>
+      </c>
+      <c r="C82" s="6">
+        <v>12496</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>27799198</v>
+      </c>
+      <c r="C83" s="6">
+        <v>12496</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>27799198</v>
+      </c>
+      <c r="C84" s="6">
+        <v>12496</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>27799198</v>
+      </c>
+      <c r="C85" s="6">
+        <v>12496</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>27799198</v>
+      </c>
+      <c r="C86" s="6">
+        <v>12496</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C87" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C88" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C89" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C90" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C91" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>28452599</v>
+      </c>
+      <c r="C92" s="6">
+        <v>10409</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
